--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -273,10 +273,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -636,10 +636,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0276019999999999</c:v>
+                  <c:v>1.0276019999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.030529</c:v>
+                  <c:v>1.0305289999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0375289999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,11 +659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191347712"/>
-        <c:axId val="191357696"/>
+        <c:axId val="172913024"/>
+        <c:axId val="172914944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191347712"/>
+        <c:axId val="172913024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191357696"/>
+        <c:crossAx val="172914944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191357696"/>
+        <c:axId val="172914944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +729,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191347712"/>
+        <c:crossAx val="172913024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,20 +1096,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1159,27 +1162,27 @@
       <c r="E3">
         <v>1401506100.1140399</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f>C3-B3</f>
         <v>2.4830999374389648</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>E3-D3</f>
         <v>4.9397945404052734E-3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>F3+G3</f>
         <v>2.4880397319793701</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>2.7602000000000002E-2</v>
       </c>
       <c r="K3">
         <f>I3+J3</f>
-        <v>3.0276019999999999</v>
+        <v>1.0276019999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1198,15 +1201,15 @@
       <c r="E4">
         <v>1401506102.1630099</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F45" si="0">C4-B4</f>
         <v>2.0345900058746338</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G45" si="1">E4-D4</f>
         <v>5.1198005676269531E-3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f>F4+G4+H3</f>
         <v>4.5277495384216309</v>
       </c>
@@ -1215,7 +1218,7 @@
       </c>
       <c r="K4">
         <f>J4+K3</f>
-        <v>3.030529</v>
+        <v>1.0305289999999998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1234,19 +1237,26 @@
       <c r="E5">
         <v>1401506105.1313601</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>2.9538300037384033</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>5.3601264953613281E-3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f>F5+G5+H4</f>
         <v>7.4869396686553955</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="J5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <f>J5+K4</f>
+        <v>1.0375289999999997</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O5" t="s">
@@ -1273,19 +1283,19 @@
       <c r="E6">
         <v>1401506107.2091801</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>1.9999499320983887</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>6.8470001220703125E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" ref="H6:H45" si="2">F6+G6+H5</f>
         <v>9.5553596019744873</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="3"/>
       <c r="O6" t="s">
         <v>8</v>
       </c>
@@ -1310,19 +1320,19 @@
       <c r="E7">
         <v>1401506109.1205101</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>1.8975698947906494</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>4.7101974487304688E-3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>11.457639694213867</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="O7" t="s">
@@ -1330,7 +1340,7 @@
       </c>
       <c r="P7">
         <f>SUM(I2:I45)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1349,25 +1359,25 @@
       <c r="E8">
         <v>1401506111.06567</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>1.9276001453399658</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>6.5600872039794922E-3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>13.391799926757813</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="3"/>
       <c r="O8" t="s">
         <v>8</v>
       </c>
       <c r="P8">
         <f>SUM(J2:J45)</f>
-        <v>3.0529000000000001E-2</v>
+        <v>3.7529E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1386,15 +1396,15 @@
       <c r="E9">
         <v>1401506113.9187</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>2.8307900428771973</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>1.0149955749511719E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>16.232739925384521</v>
       </c>
@@ -1415,15 +1425,15 @@
       <c r="E10">
         <v>1401506116.0190001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>2.0850100517272949</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>5.7799816131591797E-3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>18.323529958724976</v>
       </c>
@@ -1444,15 +1454,15 @@
       <c r="E11">
         <v>1401506117.9874899</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>1.9551398754119873</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>4.6899318695068359E-3</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>20.28335976600647</v>
       </c>
@@ -1473,15 +1483,15 @@
       <c r="E12">
         <v>1401506121.00719</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>2.8150198459625244</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0.19553995132446289</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>23.293919563293457</v>
       </c>
@@ -1502,15 +1512,15 @@
       <c r="E13">
         <v>1401506123.17993</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>2.1539499759674072</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>9.1300010681152344E-3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>25.456999540328979</v>
       </c>
@@ -1531,15 +1541,15 @@
       <c r="E14">
         <v>1401506142.7723501</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>2.9317100048065186</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>16.650540113449097</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>45.039249658584595</v>
       </c>
@@ -1560,15 +1570,15 @@
       <c r="E15">
         <v>1401506145.0048101</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>2.2168300151824951</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>5.8500766754150391E-3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>47.261929750442505</v>
       </c>
@@ -1589,15 +1599,15 @@
       <c r="E16">
         <v>1401506155.2536199</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>2.0366499423980713</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>8.2016499042510986</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>57.500229597091675</v>
       </c>
@@ -1618,15 +1628,15 @@
       <c r="E17">
         <v>1401506157.2021599</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>1.9338600635528564</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>5.0599575042724609E-3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>59.439149618148804</v>
       </c>
@@ -1647,15 +1657,15 @@
       <c r="E18">
         <v>1401506159.25494</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>2.0384299755096436</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>4.7800540924072266E-3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>61.482359647750854</v>
       </c>
@@ -1676,15 +1686,15 @@
       <c r="E19">
         <v>1401506161.3524301</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>2.082970142364502</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>5.7401657104492188E-3</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>63.571069955825806</v>
       </c>
@@ -1705,15 +1715,15 @@
       <c r="E20">
         <v>1401506163.3908999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>2.024320125579834</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>4.6999454498291016E-3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>65.600090026855469</v>
       </c>
@@ -1734,15 +1744,15 @@
       <c r="E21">
         <v>1401506165.3899601</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>1.9837298393249512</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>5.2101612091064453E-3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
         <v>67.589030027389526</v>
       </c>
@@ -1763,15 +1773,15 @@
       <c r="E22">
         <v>1401506167.40734</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>2.0012099742889404</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>6.7501068115234375E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>69.59699010848999</v>
       </c>
@@ -1792,15 +1802,15 @@
       <c r="E23">
         <v>1401506174.6335599</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>2.8384299278259277</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>4.3778300285339355</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>76.813250064849854</v>
       </c>
@@ -1821,15 +1831,15 @@
       <c r="E24">
         <v>1401506177.04443</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>2.0839400291442871</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0.31763005256652832</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>79.214820146560669</v>
       </c>
@@ -1850,15 +1860,15 @@
       <c r="E25">
         <v>1401506185.16766</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>2.904210090637207</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>5.2098100185394287</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>87.328840255737305</v>
       </c>
@@ -1879,15 +1889,15 @@
       <c r="E26">
         <v>1401506197.00155</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>1.9403300285339355</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>9.8830499649047852</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>99.152220249176025</v>
       </c>
@@ -1908,15 +1918,15 @@
       <c r="E27">
         <v>1401506199.0007601</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>1.9834702014923096</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>6.3900947570800781E-3</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>101.14208054542542</v>
       </c>
@@ -1937,15 +1947,15 @@
       <c r="E28">
         <v>1401506202.05094</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>2.8268599510192871</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>0.21382999420166016</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>104.18277049064636</v>
       </c>
@@ -1966,15 +1976,15 @@
       <c r="E29">
         <v>1401506204.07147</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>2.0068700313568115</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>4.7800540924072266E-3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>106.19442057609558</v>
       </c>
@@ -1995,15 +2005,15 @@
       <c r="E30">
         <v>1401506206.1110301</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>1.9879097938537598</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>4.1779994964599609E-2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>108.22411036491394</v>
       </c>
@@ -2024,15 +2034,15 @@
       <c r="E31">
         <v>1401506208.0019901</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>1.8603601455688477</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>2.1780014038085938E-2</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>110.10625052452087</v>
       </c>
@@ -2053,15 +2063,15 @@
       <c r="E32">
         <v>1401506210.2809</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>2.0411698818206787</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>0.22854995727539063</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>112.37597036361694</v>
       </c>
@@ -2082,15 +2092,15 @@
       <c r="E33">
         <v>1401506212.56655</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>2.1014101505279541</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>0.17470002174377441</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>114.65208053588867</v>
       </c>
@@ -2111,15 +2121,15 @@
       <c r="E34">
         <v>1401506214.78018</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>2.1730599403381348</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>3.1009912490844727E-2</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>116.85615038871765</v>
       </c>
@@ -2140,15 +2150,15 @@
       <c r="E35">
         <v>1401506216.7904201</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="0"/>
         <v>1.9960799217224121</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>5.0699710845947266E-3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>118.85730028152466</v>
       </c>
@@ -2169,15 +2179,15 @@
       <c r="E36">
         <v>1401506218.8408301</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>1.9477198123931885</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>9.2980146408081055E-2</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>120.89800024032593</v>
       </c>
@@ -2198,15 +2208,15 @@
       <c r="E37">
         <v>1401506223.3635001</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>2.9260599613189697</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>1.5862200260162354</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>125.41028022766113</v>
       </c>
@@ -2227,15 +2237,15 @@
       <c r="E38">
         <v>1401506227.0525899</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>2.4600100517272949</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f t="shared" si="1"/>
         <v>1.2194299697875977</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>129.08972024917603</v>
       </c>
@@ -2256,15 +2266,15 @@
       <c r="E39">
         <v>1401506229.2080801</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>2.1175200939178467</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <f t="shared" si="1"/>
         <v>2.6110172271728516E-2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <f t="shared" si="2"/>
         <v>131.2333505153656</v>
       </c>
@@ -2285,15 +2295,15 @@
       <c r="E40">
         <v>1401506231.3338201</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>2.0913598537445068</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <f t="shared" si="1"/>
         <v>2.2150039672851563E-2</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <f t="shared" si="2"/>
         <v>133.34686040878296</v>
       </c>
@@ -2314,15 +2324,15 @@
       <c r="E41">
         <v>1401506233.3621199</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>2.0130798816680908</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <f t="shared" si="1"/>
         <v>5.2998065948486328E-3</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <f t="shared" si="2"/>
         <v>135.3652400970459</v>
       </c>
@@ -2343,15 +2353,15 @@
       <c r="E42">
         <v>1401506238.69504</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="0"/>
         <v>5.2769501209259033</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <f t="shared" si="1"/>
         <v>4.6149969100952148E-2</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <f t="shared" si="2"/>
         <v>140.68834018707275</v>
       </c>
@@ -2372,15 +2382,15 @@
       <c r="E43">
         <v>1401506244.0320101</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <f t="shared" si="0"/>
         <v>3.0603599548339844</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <f t="shared" si="1"/>
         <v>2.2670300006866455</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <f t="shared" si="2"/>
         <v>146.01573014259338</v>
       </c>
@@ -2401,15 +2411,15 @@
       <c r="E44">
         <v>1401506246.31183</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="0"/>
         <v>2.2660198211669922</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f t="shared" si="1"/>
         <v>4.8301219940185547E-3</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <f t="shared" si="2"/>
         <v>148.28658008575439</v>
       </c>
@@ -2430,15 +2440,15 @@
       <c r="E45">
         <v>1401506248.20438</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="0"/>
         <v>1.8787698745727539</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <f t="shared" si="1"/>
         <v>4.7900676727294922E-3</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <f t="shared" si="2"/>
         <v>150.17014002799988</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -484,133 +484,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>2.4880397319793701</c:v>
+                  <c:v>4.9397945404052734E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5277495384216309</c:v>
+                  <c:v>1.0059595108032227E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4869396686553955</c:v>
+                  <c:v>1.5419721603393555E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5553596019744873</c:v>
+                  <c:v>8.388972282409668E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.457639694213867</c:v>
+                  <c:v>8.8599920272827148E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.391799926757813</c:v>
+                  <c:v>9.5160007476806641E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.232739925384521</c:v>
+                  <c:v>0.10530996322631836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.323529958724976</c:v>
+                  <c:v>0.11108994483947754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.28335976600647</c:v>
+                  <c:v>0.11577987670898438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.293919563293457</c:v>
+                  <c:v>0.31131982803344727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.456999540328979</c:v>
+                  <c:v>0.3204498291015625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.039249658584595</c:v>
+                  <c:v>16.970989942550659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.261929750442505</c:v>
+                  <c:v>16.976840019226074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57.500229597091675</c:v>
+                  <c:v>25.178489923477173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59.439149618148804</c:v>
+                  <c:v>25.183549880981445</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.482359647750854</c:v>
+                  <c:v>25.188329935073853</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.571069955825806</c:v>
+                  <c:v>25.194070100784302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.600090026855469</c:v>
+                  <c:v>25.198770046234131</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.589030027389526</c:v>
+                  <c:v>25.203980207443237</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69.59699010848999</c:v>
+                  <c:v>25.210730314254761</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76.813250064849854</c:v>
+                  <c:v>29.588560342788696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79.214820146560669</c:v>
+                  <c:v>29.906190395355225</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87.328840255737305</c:v>
+                  <c:v>35.116000413894653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>99.152220249176025</c:v>
+                  <c:v>44.999050378799438</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>101.14208054542542</c:v>
+                  <c:v>45.005440473556519</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104.18277049064636</c:v>
+                  <c:v>45.219270467758179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>106.19442057609558</c:v>
+                  <c:v>45.224050521850586</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>108.22411036491394</c:v>
+                  <c:v>45.265830516815186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>110.10625052452087</c:v>
+                  <c:v>45.287610530853271</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>112.37597036361694</c:v>
+                  <c:v>45.516160488128662</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>114.65208053588867</c:v>
+                  <c:v>45.690860509872437</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>116.85615038871765</c:v>
+                  <c:v>45.721870422363281</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>118.85730028152466</c:v>
+                  <c:v>45.726940393447876</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>120.89800024032593</c:v>
+                  <c:v>45.819920539855957</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>125.41028022766113</c:v>
+                  <c:v>47.406140565872192</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>129.08972024917603</c:v>
+                  <c:v>48.62557053565979</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>131.2333505153656</c:v>
+                  <c:v>48.651680707931519</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>133.34686040878296</c:v>
+                  <c:v>48.67383074760437</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>135.3652400970459</c:v>
+                  <c:v>48.679130554199219</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>140.68834018707275</c:v>
+                  <c:v>48.725280523300171</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>146.01573014259338</c:v>
+                  <c:v>50.992310523986816</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>148.28658008575439</c:v>
+                  <c:v>50.997140645980835</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>150.17014002799988</c:v>
+                  <c:v>51.001930713653564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,13 +636,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0276019999999999</c:v>
+                  <c:v>2.7602000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0305289999999998</c:v>
+                  <c:v>3.0529000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0375289999999997</c:v>
+                  <c:v>3.7529E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,11 +659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172913024"/>
-        <c:axId val="172914944"/>
+        <c:axId val="172781952"/>
+        <c:axId val="172783872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172913024"/>
+        <c:axId val="172781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172914944"/>
+        <c:crossAx val="172783872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172914944"/>
+        <c:axId val="172783872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +729,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172913024"/>
+        <c:crossAx val="172781952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,16 +755,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1089,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1171,18 +1172,18 @@
         <v>4.9397945404052734E-3</v>
       </c>
       <c r="H3" s="2">
-        <f>F3+G3</f>
-        <v>2.4880397319793701</v>
+        <f>G3</f>
+        <v>4.9397945404052734E-3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="J3">
         <v>2.7602000000000002E-2</v>
       </c>
       <c r="K3">
-        <f>I3+J3</f>
-        <v>1.0276019999999999</v>
+        <f>J3</f>
+        <v>2.7602000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1210,15 +1211,15 @@
         <v>5.1198005676269531E-3</v>
       </c>
       <c r="H4" s="2">
-        <f>F4+G4+H3</f>
-        <v>4.5277495384216309</v>
+        <f>H3+G4</f>
+        <v>1.0059595108032227E-2</v>
       </c>
       <c r="J4">
         <v>2.9269999999999999E-3</v>
       </c>
       <c r="K4">
         <f>J4+K3</f>
-        <v>1.0305289999999998</v>
+        <v>3.0529000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1246,15 +1247,15 @@
         <v>5.3601264953613281E-3</v>
       </c>
       <c r="H5" s="2">
-        <f>F5+G5+H4</f>
-        <v>7.4869396686553955</v>
+        <f>G5+H4</f>
+        <v>1.5419721603393555E-2</v>
       </c>
       <c r="J5">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="K5">
         <f>J5+K4</f>
-        <v>1.0375289999999997</v>
+        <v>3.7529E-2</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>53</v>
@@ -1292,8 +1293,8 @@
         <v>6.8470001220703125E-2</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H45" si="2">F6+G6+H5</f>
-        <v>9.5553596019744873</v>
+        <f>G6+H5</f>
+        <v>8.388972282409668E-2</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" t="s">
@@ -1329,8 +1330,8 @@
         <v>4.7101974487304688E-3</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>11.457639694213867</v>
+        <f t="shared" ref="H7:H45" si="2">G7+H6</f>
+        <v>8.8599920272827148E-2</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>54</v>
@@ -1340,7 +1341,7 @@
       </c>
       <c r="P7">
         <f>SUM(I2:I45)</f>
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1369,7 +1370,7 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>13.391799926757813</v>
+        <v>9.5160007476806641E-2</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" t="s">
@@ -1406,7 +1407,7 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>16.232739925384521</v>
+        <v>0.10530996322631836</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1435,7 +1436,7 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>18.323529958724976</v>
+        <v>0.11108994483947754</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1464,7 +1465,7 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>20.28335976600647</v>
+        <v>0.11577987670898438</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1493,7 +1494,7 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>23.293919563293457</v>
+        <v>0.31131982803344727</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1522,7 +1523,7 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>25.456999540328979</v>
+        <v>0.3204498291015625</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1551,7 +1552,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>45.039249658584595</v>
+        <v>16.970989942550659</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1580,7 +1581,7 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>47.261929750442505</v>
+        <v>16.976840019226074</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1609,7 +1610,7 @@
       </c>
       <c r="H16" s="2">
         <f t="shared" si="2"/>
-        <v>57.500229597091675</v>
+        <v>25.178489923477173</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,7 +1639,7 @@
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>59.439149618148804</v>
+        <v>25.183549880981445</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,7 +1668,7 @@
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>61.482359647750854</v>
+        <v>25.188329935073853</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1696,7 +1697,7 @@
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>63.571069955825806</v>
+        <v>25.194070100784302</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,7 +1726,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>65.600090026855469</v>
+        <v>25.198770046234131</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1754,7 +1755,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>67.589030027389526</v>
+        <v>25.203980207443237</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1783,7 +1784,7 @@
       </c>
       <c r="H22" s="2">
         <f t="shared" si="2"/>
-        <v>69.59699010848999</v>
+        <v>25.210730314254761</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1812,7 +1813,7 @@
       </c>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
-        <v>76.813250064849854</v>
+        <v>29.588560342788696</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,7 +1842,7 @@
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
-        <v>79.214820146560669</v>
+        <v>29.906190395355225</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1870,7 +1871,7 @@
       </c>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
-        <v>87.328840255737305</v>
+        <v>35.116000413894653</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1899,7 +1900,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>99.152220249176025</v>
+        <v>44.999050378799438</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1928,7 +1929,7 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>101.14208054542542</v>
+        <v>45.005440473556519</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1957,7 +1958,7 @@
       </c>
       <c r="H28" s="2">
         <f t="shared" si="2"/>
-        <v>104.18277049064636</v>
+        <v>45.219270467758179</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1986,7 +1987,7 @@
       </c>
       <c r="H29" s="2">
         <f t="shared" si="2"/>
-        <v>106.19442057609558</v>
+        <v>45.224050521850586</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,7 +2016,7 @@
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>108.22411036491394</v>
+        <v>45.265830516815186</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,7 +2045,7 @@
       </c>
       <c r="H31" s="2">
         <f t="shared" si="2"/>
-        <v>110.10625052452087</v>
+        <v>45.287610530853271</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,7 +2074,7 @@
       </c>
       <c r="H32" s="2">
         <f t="shared" si="2"/>
-        <v>112.37597036361694</v>
+        <v>45.516160488128662</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2102,7 +2103,7 @@
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>114.65208053588867</v>
+        <v>45.690860509872437</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2131,7 +2132,7 @@
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>116.85615038871765</v>
+        <v>45.721870422363281</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,7 +2161,7 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>118.85730028152466</v>
+        <v>45.726940393447876</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2189,7 +2190,7 @@
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>120.89800024032593</v>
+        <v>45.819920539855957</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2218,7 +2219,7 @@
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>125.41028022766113</v>
+        <v>47.406140565872192</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,7 +2248,7 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>129.08972024917603</v>
+        <v>48.62557053565979</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,7 +2277,7 @@
       </c>
       <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>131.2333505153656</v>
+        <v>48.651680707931519</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2305,7 +2306,7 @@
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>133.34686040878296</v>
+        <v>48.67383074760437</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2334,7 +2335,7 @@
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>135.3652400970459</v>
+        <v>48.679130554199219</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2363,7 +2364,7 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>140.68834018707275</v>
+        <v>48.725280523300171</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2392,7 +2393,7 @@
       </c>
       <c r="H43" s="2">
         <f t="shared" si="2"/>
-        <v>146.01573014259338</v>
+        <v>50.992310523986816</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2421,7 +2422,7 @@
       </c>
       <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>148.28658008575439</v>
+        <v>50.997140645980835</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2450,7 +2451,7 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>150.17014002799988</v>
+        <v>51.001930713653564</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\euler2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24915" windowHeight="12585"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="compile" localSheetId="0">Haskell!$A$3:$E$45</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Problem</t>
   </si>
@@ -206,6 +211,9 @@
   </si>
   <si>
     <t>Total Compile time</t>
+  </si>
+  <si>
+    <t>Runtime Speedup</t>
   </si>
 </sst>
 </file>
@@ -288,6 +296,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -317,7 +328,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cumulative Runtime</a:t>
+              <a:t>Project Euler Cumulative Runtime</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -644,6 +655,36 @@
                 <c:pt idx="3">
                   <c:v>3.7529E-2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15595800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15646300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15683200000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49955200000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49955200000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50784900000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.433947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.433947</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.433947</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.450562</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -657,13 +698,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172781952"/>
-        <c:axId val="172783872"/>
+        <c:axId val="162250320"/>
+        <c:axId val="161260672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172781952"/>
+        <c:axId val="162250320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,10 +728,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172783872"/>
+        <c:crossAx val="161260672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172783872"/>
+        <c:axId val="161260672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +758,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Compile + Rune Time (Seconds)</a:t>
+                  <a:t>Run Time (Seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -729,7 +770,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172781952"/>
+        <c:crossAx val="162250320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,20 +792,1710 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F# vs Haskell</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Haskell!$N$5,Haskell!$N$7)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Haskell!$P$6,Haskell!$P$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>51.001930713653564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.450562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Haskell!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Runtime Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Haskell!$L$3:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-5.5876817900477826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7491631594215762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3059393292411707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7296479901944399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3271236608524131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.77801410292545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-33.765664447993991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7691088550658332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-60.990595114810141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.8401337147980601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="528552128"/>
+        <c:axId val="528547032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="528552128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528547032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528547032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Times Speedup </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(Negative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> means</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Haskell Faster)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528552128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -778,6 +2509,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -833,7 +2624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,7 +2659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,21 +2870,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1146,6 +2939,9 @@
       <c r="K2" t="s">
         <v>55</v>
       </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1176,7 +2972,7 @@
         <v>4.9397945404052734E-3</v>
       </c>
       <c r="I3">
-        <v>0.91</v>
+        <v>2.31</v>
       </c>
       <c r="J3">
         <v>2.7602000000000002E-2</v>
@@ -1185,6 +2981,10 @@
         <f>J3</f>
         <v>2.7602000000000002E-2</v>
       </c>
+      <c r="L3">
+        <f>IF(G3/J3&lt;1,-1*J3/G3,G3/J3)</f>
+        <v>-5.5876817900477826</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1221,6 +3021,10 @@
         <f>J4+K3</f>
         <v>3.0529000000000001E-2</v>
       </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L15" si="2">IF(G4/J4&lt;1,-1*J4/G4,G4/J4)</f>
+        <v>1.7491631594215762</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1257,6 +3061,10 @@
         <f>J5+K4</f>
         <v>3.7529E-2</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>-1.3059393292411707</v>
+      </c>
       <c r="N5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1296,13 +3104,24 @@
         <f>G6+H5</f>
         <v>8.388972282409668E-2</v>
       </c>
+      <c r="J6">
+        <v>0.11842900000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K15" si="3">J6+K5</f>
+        <v>0.15595800000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>-1.7296479901944399</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" t="s">
         <v>8</v>
       </c>
       <c r="P6">
-        <f>G:G</f>
-        <v>6.8470001220703125E-2</v>
+        <f>SUM(G:G)</f>
+        <v>51.001930713653564</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1330,8 +3149,19 @@
         <v>4.7101974487304688E-3</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7:H45" si="2">G7+H6</f>
+        <f t="shared" ref="H7:H45" si="4">G7+H6</f>
         <v>8.8599920272827148E-2</v>
+      </c>
+      <c r="J7">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.15646300000000002</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>9.3271236608524131</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>54</v>
@@ -1341,7 +3171,7 @@
       </c>
       <c r="P7">
         <f>SUM(I2:I45)</f>
-        <v>0.91</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1369,8 +3199,19 @@
         <v>6.5600872039794922E-3</v>
       </c>
       <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>9.5160007476806641E-2</v>
+      </c>
+      <c r="J8">
+        <v>3.6900000000000002E-4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.15683200000000003</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
-        <v>9.5160007476806641E-2</v>
+        <v>17.77801410292545</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" t="s">
@@ -1378,7 +3219,7 @@
       </c>
       <c r="P8">
         <f>SUM(J2:J45)</f>
-        <v>3.7529E-2</v>
+        <v>12.450562</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1406,8 +3247,19 @@
         <v>1.0149955749511719E-2</v>
       </c>
       <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10530996322631836</v>
+      </c>
+      <c r="J9">
+        <v>0.34272000000000002</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.49955200000000005</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
-        <v>0.10530996322631836</v>
+        <v>-33.765664447993991</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1435,8 +3287,16 @@
         <v>5.7799816131591797E-3</v>
       </c>
       <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11108994483947754</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.49955200000000005</v>
+      </c>
+      <c r="L10" t="e">
         <f t="shared" si="2"/>
-        <v>0.11108994483947754</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1464,8 +3324,19 @@
         <v>4.6899318695068359E-3</v>
       </c>
       <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11577987670898438</v>
+      </c>
+      <c r="J11">
+        <v>8.2970000000000006E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.50784900000000011</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>0.11577987670898438</v>
+        <v>-1.7691088550658332</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1493,8 +3364,19 @@
         <v>0.19553995132446289</v>
       </c>
       <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.31131982803344727</v>
+      </c>
+      <c r="J12">
+        <v>11.926098</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>12.433947</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>0.31131982803344727</v>
+        <v>-60.990595114810141</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1522,8 +3404,16 @@
         <v>9.1300010681152344E-3</v>
       </c>
       <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.3204498291015625</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>12.433947</v>
+      </c>
+      <c r="L13" t="e">
         <f t="shared" si="2"/>
-        <v>0.3204498291015625</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1551,8 +3441,16 @@
         <v>16.650540113449097</v>
       </c>
       <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>16.970989942550659</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>12.433947</v>
+      </c>
+      <c r="L14" t="e">
         <f t="shared" si="2"/>
-        <v>16.970989942550659</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1580,8 +3478,19 @@
         <v>5.8500766754150391E-3</v>
       </c>
       <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>16.976840019226074</v>
+      </c>
+      <c r="J15">
+        <v>1.6615000000000001E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>12.450562</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="2"/>
-        <v>16.976840019226074</v>
+        <v>-2.8401337147980601</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1609,7 +3518,7 @@
         <v>8.2016499042510986</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.178489923477173</v>
       </c>
     </row>
@@ -1638,7 +3547,7 @@
         <v>5.0599575042724609E-3</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.183549880981445</v>
       </c>
     </row>
@@ -1667,7 +3576,7 @@
         <v>4.7800540924072266E-3</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.188329935073853</v>
       </c>
     </row>
@@ -1696,7 +3605,7 @@
         <v>5.7401657104492188E-3</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.194070100784302</v>
       </c>
     </row>
@@ -1725,7 +3634,7 @@
         <v>4.6999454498291016E-3</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.198770046234131</v>
       </c>
     </row>
@@ -1754,7 +3663,7 @@
         <v>5.2101612091064453E-3</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.203980207443237</v>
       </c>
     </row>
@@ -1783,7 +3692,7 @@
         <v>6.7501068115234375E-3</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.210730314254761</v>
       </c>
     </row>
@@ -1812,7 +3721,7 @@
         <v>4.3778300285339355</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.588560342788696</v>
       </c>
     </row>
@@ -1841,7 +3750,7 @@
         <v>0.31763005256652832</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.906190395355225</v>
       </c>
     </row>
@@ -1870,7 +3779,7 @@
         <v>5.2098100185394287</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.116000413894653</v>
       </c>
     </row>
@@ -1899,7 +3808,7 @@
         <v>9.8830499649047852</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44.999050378799438</v>
       </c>
     </row>
@@ -1928,7 +3837,7 @@
         <v>6.3900947570800781E-3</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.005440473556519</v>
       </c>
     </row>
@@ -1957,7 +3866,7 @@
         <v>0.21382999420166016</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.219270467758179</v>
       </c>
     </row>
@@ -1986,7 +3895,7 @@
         <v>4.7800540924072266E-3</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.224050521850586</v>
       </c>
     </row>
@@ -2015,7 +3924,7 @@
         <v>4.1779994964599609E-2</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.265830516815186</v>
       </c>
     </row>
@@ -2044,7 +3953,7 @@
         <v>2.1780014038085938E-2</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.287610530853271</v>
       </c>
     </row>
@@ -2073,7 +3982,7 @@
         <v>0.22854995727539063</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.516160488128662</v>
       </c>
     </row>
@@ -2102,7 +4011,7 @@
         <v>0.17470002174377441</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.690860509872437</v>
       </c>
     </row>
@@ -2131,7 +4040,7 @@
         <v>3.1009912490844727E-2</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.721870422363281</v>
       </c>
     </row>
@@ -2160,7 +4069,7 @@
         <v>5.0699710845947266E-3</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.726940393447876</v>
       </c>
     </row>
@@ -2189,7 +4098,7 @@
         <v>9.2980146408081055E-2</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.819920539855957</v>
       </c>
     </row>
@@ -2218,7 +4127,7 @@
         <v>1.5862200260162354</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47.406140565872192</v>
       </c>
     </row>
@@ -2247,7 +4156,7 @@
         <v>1.2194299697875977</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.62557053565979</v>
       </c>
     </row>
@@ -2276,7 +4185,7 @@
         <v>2.6110172271728516E-2</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.651680707931519</v>
       </c>
     </row>
@@ -2305,7 +4214,7 @@
         <v>2.2150039672851563E-2</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.67383074760437</v>
       </c>
     </row>
@@ -2334,7 +4243,7 @@
         <v>5.2998065948486328E-3</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.679130554199219</v>
       </c>
     </row>
@@ -2363,7 +4272,7 @@
         <v>4.6149969100952148E-2</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.725280523300171</v>
       </c>
     </row>
@@ -2392,7 +4301,7 @@
         <v>2.2670300006866455</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.992310523986816</v>
       </c>
     </row>
@@ -2421,7 +4330,7 @@
         <v>4.8301219940185547E-3</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.997140645980835</v>
       </c>
     </row>
@@ -2450,7 +4359,7 @@
         <v>4.7900676727294922E-3</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51.001930713653564</v>
       </c>
     </row>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\euler2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24915" windowHeight="12585"/>
   </bookViews>
@@ -698,12 +693,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162250320"/>
-        <c:axId val="161260672"/>
+        <c:axId val="173048192"/>
+        <c:axId val="173050112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162250320"/>
+        <c:axId val="173048192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +728,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161260672"/>
+        <c:crossAx val="173050112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -740,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161260672"/>
+        <c:axId val="173050112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +766,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162250320"/>
+        <c:crossAx val="173048192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,26 +837,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1153,11 +1129,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="528552128"/>
-        <c:axId val="528547032"/>
+        <c:axId val="173090688"/>
+        <c:axId val="173092224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="528552128"/>
+        <c:axId val="173090688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528547032"/>
+        <c:crossAx val="173092224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1207,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528547032"/>
+        <c:axId val="173092224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1229,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1279,26 +1265,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1331,7 +1297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528552128"/>
+        <c:crossAx val="173090688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,7 +2590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2659,7 +2625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2870,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24915" windowHeight="12585"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="24920" windowHeight="12590"/>
   </bookViews>
   <sheets>
     <sheet name="Haskell" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="compile" localSheetId="0">Haskell!$A$3:$E$45</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -695,11 +695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173048192"/>
-        <c:axId val="173050112"/>
+        <c:axId val="123024896"/>
+        <c:axId val="90297984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173048192"/>
+        <c:axId val="123024896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +728,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173050112"/>
+        <c:crossAx val="90297984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173050112"/>
+        <c:axId val="90297984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173048192"/>
+        <c:crossAx val="123024896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -900,7 +900,7 @@
                   <c:v>51.001930713653564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.450562</c:v>
+                  <c:v>23.383062999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,11 +1129,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173090688"/>
-        <c:axId val="173092224"/>
+        <c:axId val="123026432"/>
+        <c:axId val="44704896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173090688"/>
+        <c:axId val="123026432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173092224"/>
+        <c:crossAx val="44704896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173092224"/>
+        <c:axId val="44704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173090688"/>
+        <c:crossAx val="123026432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,26 +2836,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" hidden="1" customWidth="1"/>
     <col min="3" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>-5.5876817900477826</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2988,11 +2988,11 @@
         <v>3.0529000000000001E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L15" si="2">IF(G4/J4&lt;1,-1*J4/G4,G4/J4)</f>
+        <f t="shared" ref="L4:L17" si="2">IF(G4/J4&lt;1,-1*J4/G4,G4/J4)</f>
         <v>1.7491631594215762</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>99.168209314346313</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>51.001930713653564</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3185,10 +3185,10 @@
       </c>
       <c r="P8">
         <f>SUM(J2:J45)</f>
-        <v>12.450562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23.383062999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>-33.765664447993991</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>-1.7691088550658332</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>-60.990595114810141</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>-2.8401337147980601</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3487,8 +3487,15 @@
         <f t="shared" si="4"/>
         <v>25.178489923477173</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>10.93</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>-1.3326586878982405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3516,8 +3523,15 @@
         <f t="shared" si="4"/>
         <v>25.183549880981445</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>2.5010000000000002E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2.0231737322160979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3546,7 +3560,7 @@
         <v>25.188329935073853</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3575,7 +3589,7 @@
         <v>25.194070100784302</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -3604,7 +3618,7 @@
         <v>25.198770046234131</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3633,7 +3647,7 @@
         <v>25.203980207443237</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3662,7 +3676,7 @@
         <v>25.210730314254761</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3691,7 +3705,7 @@
         <v>29.588560342788696</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -3720,7 +3734,7 @@
         <v>29.906190395355225</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3749,7 +3763,7 @@
         <v>35.116000413894653</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>44.999050378799438</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3807,7 +3821,7 @@
         <v>45.005440473556519</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -3836,7 +3850,7 @@
         <v>45.219270467758179</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -3865,7 +3879,7 @@
         <v>45.224050521850586</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3894,7 +3908,7 @@
         <v>45.265830516815186</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -3923,7 +3937,7 @@
         <v>45.287610530853271</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -3952,7 +3966,7 @@
         <v>45.516160488128662</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -3981,7 +3995,7 @@
         <v>45.690860509872437</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>45.721870422363281</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -4039,7 +4053,7 @@
         <v>45.726940393447876</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -4068,7 +4082,7 @@
         <v>45.819920539855957</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -4097,7 +4111,7 @@
         <v>47.406140565872192</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,7 +4140,7 @@
         <v>48.62557053565979</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>48.651680707931519</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>48.67383074760437</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -4213,7 +4227,7 @@
         <v>48.679130554199219</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>48.725280523300171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -4271,7 +4285,7 @@
         <v>50.992310523986816</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -4300,7 +4314,7 @@
         <v>50.997140645980835</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -4329,7 +4343,7 @@
         <v>51.001930713653564</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
   </sheetData>
@@ -4350,7 +4364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4362,7 +4376,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -680,6 +680,15 @@
                 <c:pt idx="13">
                   <c:v>12.450562</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.380561999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.383062999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.383390999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -695,11 +704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123024896"/>
-        <c:axId val="90297984"/>
+        <c:axId val="75649024"/>
+        <c:axId val="58119232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123024896"/>
+        <c:axId val="75649024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +737,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90297984"/>
+        <c:crossAx val="58119232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90297984"/>
+        <c:axId val="58119232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +775,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123024896"/>
+        <c:crossAx val="75649024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -900,7 +909,7 @@
                   <c:v>51.001930713653564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.383062999999996</c:v>
+                  <c:v>23.383390999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,10 +1081,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Haskell!$L$3:$L$15</c:f>
+              <c:f>Haskell!$L$3:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>-5.5876817900477826</c:v>
                 </c:pt>
@@ -1114,6 +1123,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-2.8401337147980601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3326586878982405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0231737322160979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.573335647583008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,11 +1147,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="123026432"/>
-        <c:axId val="44704896"/>
+        <c:axId val="75651072"/>
+        <c:axId val="76685888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123026432"/>
+        <c:axId val="75651072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44704896"/>
+        <c:crossAx val="76685888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44704896"/>
+        <c:axId val="76685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123026432"/>
+        <c:crossAx val="75651072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2452,16 +2470,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>450849</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2483,15 +2501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2512,16 +2530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2837,7 +2855,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2988,7 +3006,7 @@
         <v>3.0529000000000001E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L17" si="2">IF(G4/J4&lt;1,-1*J4/G4,G4/J4)</f>
+        <f t="shared" ref="L4:L18" si="2">IF(G4/J4&lt;1,-1*J4/G4,G4/J4)</f>
         <v>1.7491631594215762</v>
       </c>
     </row>
@@ -3074,7 +3092,7 @@
         <v>0.11842900000000001</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K15" si="3">J6+K5</f>
+        <f t="shared" ref="K6:K18" si="3">J6+K5</f>
         <v>0.15595800000000001</v>
       </c>
       <c r="L6">
@@ -3185,7 +3203,7 @@
       </c>
       <c r="P8">
         <f>SUM(J2:J45)</f>
-        <v>23.383062999999996</v>
+        <v>23.383390999999996</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -3490,12 +3508,16 @@
       <c r="J16">
         <v>10.93</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>23.380561999999998</v>
+      </c>
       <c r="L16">
         <f t="shared" si="2"/>
         <v>-1.3326586878982405</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3526,12 +3548,16 @@
       <c r="J17">
         <v>2.5010000000000002E-3</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>23.383062999999996</v>
+      </c>
       <c r="L17">
         <f t="shared" si="2"/>
         <v>2.0231737322160979</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3559,8 +3585,19 @@
         <f t="shared" si="4"/>
         <v>25.188329935073853</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>3.28E-4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>23.383390999999996</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>14.573335647583008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -704,11 +704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75649024"/>
-        <c:axId val="58119232"/>
+        <c:axId val="39342592"/>
+        <c:axId val="100914240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75649024"/>
+        <c:axId val="39342592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +737,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58119232"/>
+        <c:crossAx val="100914240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -745,7 +745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58119232"/>
+        <c:axId val="100914240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +775,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75649024"/>
+        <c:crossAx val="39342592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,7 +909,7 @@
                   <c:v>51.001930713653564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.383390999999996</c:v>
+                  <c:v>28.391290999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,11 +1147,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="75651072"/>
-        <c:axId val="76685888"/>
+        <c:axId val="39344128"/>
+        <c:axId val="40378944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75651072"/>
+        <c:axId val="39344128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76685888"/>
+        <c:crossAx val="40378944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1201,7 +1201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76685888"/>
+        <c:axId val="40378944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75651072"/>
+        <c:crossAx val="39344128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2855,7 +2855,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3006,7 +3006,7 @@
         <v>3.0529000000000001E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L18" si="2">IF(G4/J4&lt;1,-1*J4/G4,G4/J4)</f>
+        <f t="shared" ref="L4:L19" si="2">IF(G4/J4&lt;1,-1*J4/G4,G4/J4)</f>
         <v>1.7491631594215762</v>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="P8">
         <f>SUM(J2:J45)</f>
-        <v>23.383390999999996</v>
+        <v>28.391290999999999</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -3625,6 +3625,13 @@
         <f t="shared" si="4"/>
         <v>25.194070100784302</v>
       </c>
+      <c r="J19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>1.4350414276123047</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3683,6 +3690,9 @@
         <f t="shared" si="4"/>
         <v>25.203980207443237</v>
       </c>
+      <c r="J21">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -3712,6 +3722,9 @@
         <f t="shared" si="4"/>
         <v>25.210730314254761</v>
       </c>
+      <c r="J22">
+        <v>8.9999999999999998E-4</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -3740,6 +3753,9 @@
       <c r="H23" s="2">
         <f t="shared" si="4"/>
         <v>29.588560342788696</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
